--- a/Παραδοτέο_2/gantt_diagram_project_names_v2.xlsx
+++ b/Παραδοτέο_2/gantt_diagram_project_names_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linos\Downloads\ΕΑΡΙΝΟ ΕΞΑΜΗΝΟ 2022\ΤΕΧΝΟΛΟΓΙΑ ΛΟΓΙΣΜΙΚΟΥ\Παραδοτέο_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1950CDB8-01AA-4156-9912-0A1EF2A23DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E90E76-457C-428B-9DE3-1AC212248113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="1695" windowWidth="19350" windowHeight="13140" xr2:uid="{2D117598-10E6-4BDD-A407-B27098BE800D}"/>
+    <workbookView xWindow="15" yWindow="285" windowWidth="21675" windowHeight="14190" xr2:uid="{2D117598-10E6-4BDD-A407-B27098BE800D}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>Tasks</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t xml:space="preserve">Αρχική σελίδα επισκέπτη </t>
+  </si>
+  <si>
+    <t>API testing</t>
   </si>
 </sst>
 </file>
@@ -254,19 +257,19 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Φύλλο1!$D$5:$D$50</c:f>
+              <c:f>Φύλλο1!$D$5:$D$51</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>Τριαντάφυλλος</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>Κατερίνα</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>Μαρία</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>Κωνσταντίνα</c:v>
                 </c:pt>
               </c:strCache>
@@ -274,10 +277,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Φύλλο1!$B$5:$B$50</c:f>
+              <c:f>Φύλλο1!$B$5:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44621</c:v>
                 </c:pt>
@@ -288,123 +291,126 @@
                   <c:v>44647</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>44673</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>44690</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>44708</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>44783</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>44817</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>44858</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>44863</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>44928</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>44960</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>44967</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>44622</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>44647</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>44678</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>44706</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>44728</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>44782</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>44817</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>44863</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>44928</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>44967</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>44635</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>44678</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>44690</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>44708</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>44730</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>44782</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>44806</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>44817</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>44863</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>44928</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>44967</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>44635</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>44678</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>44706</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>44728</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>44782</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>44803</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>44817</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>44863</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>44928</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>44967</c:v>
                 </c:pt>
               </c:numCache>
@@ -442,19 +448,19 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Φύλλο1!$D$5:$D$50</c:f>
+              <c:f>Φύλλο1!$D$5:$D$51</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>Τριαντάφυλλος</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>Κατερίνα</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>Μαρία</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>Κωνσταντίνα</c:v>
                 </c:pt>
               </c:strCache>
@@ -462,10 +468,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Φύλλο1!$C$5:$C$50</c:f>
+              <c:f>Φύλλο1!$C$5:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -476,43 +482,43 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>20</c:v>
@@ -521,78 +527,81 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -1331,13 +1340,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1360713</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>367392</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1663,10 +1672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B440DB-7B8C-4752-933D-F1503456B334}">
-  <dimension ref="A3:D50"/>
+  <dimension ref="A3:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1728,156 +1737,160 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2">
-        <v>44690</v>
+        <v>44673</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>44708</v>
+        <v>44690</v>
       </c>
       <c r="C9">
-        <v>70</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>44783</v>
+        <v>44708</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>44817</v>
+        <v>44783</v>
       </c>
       <c r="C11">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>44858</v>
+        <v>44817</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>44863</v>
+        <v>44858</v>
       </c>
       <c r="C13">
-        <v>60</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>44928</v>
+        <v>44863</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>44960</v>
+        <v>44928</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44960</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17" s="2">
         <v>44967</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
-        <v>44622</v>
-      </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>44647</v>
+        <v>44622</v>
       </c>
       <c r="C19">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B20" s="2">
-        <v>44678</v>
+        <v>44647</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>44706</v>
+        <v>44678</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>44728</v>
+        <v>44706</v>
       </c>
       <c r="C22">
         <v>20</v>
@@ -1885,10 +1898,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>44782</v>
+        <v>44728</v>
       </c>
       <c r="C23">
         <v>20</v>
@@ -1896,287 +1909,299 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>44817</v>
+        <v>44782</v>
       </c>
       <c r="C24">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" s="2">
-        <v>44863</v>
+        <v>44817</v>
       </c>
       <c r="C25">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26" s="2">
-        <v>44928</v>
+        <v>44863</v>
       </c>
       <c r="C26">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="2">
+        <v>44928</v>
+      </c>
+      <c r="C27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B28" s="2">
         <v>44967</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="2">
-        <v>44635</v>
-      </c>
-      <c r="C29">
-        <v>12</v>
-      </c>
-      <c r="D29" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" s="2">
-        <v>44678</v>
+        <v>44635</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B31" s="2">
-        <v>44690</v>
+        <v>44678</v>
       </c>
       <c r="C31">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B32" s="2">
-        <v>44708</v>
+        <v>44690</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="2">
-        <v>44730</v>
+        <v>44708</v>
       </c>
       <c r="C33">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" s="2">
-        <v>44782</v>
+        <v>44730</v>
       </c>
       <c r="C34">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35" s="2">
-        <v>44806</v>
+        <v>44782</v>
       </c>
       <c r="C35">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B36" s="2">
-        <v>44817</v>
+        <v>44806</v>
       </c>
       <c r="C36">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B37" s="2">
-        <v>44863</v>
+        <v>44817</v>
       </c>
       <c r="C37">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B38" s="2">
-        <v>44928</v>
+        <v>44863</v>
       </c>
       <c r="C38">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="2">
+        <v>44928</v>
+      </c>
+      <c r="C39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B40" s="2">
         <v>44967</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="2">
-        <v>44635</v>
-      </c>
-      <c r="C41">
-        <v>12</v>
-      </c>
-      <c r="D41" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B42" s="2">
-        <v>44678</v>
+        <v>44635</v>
       </c>
       <c r="C42">
         <v>12</v>
       </c>
+      <c r="D42" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B43" s="2">
-        <v>44706</v>
+        <v>44678</v>
       </c>
       <c r="C43">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B44" s="2">
-        <v>44728</v>
+        <v>44706</v>
       </c>
       <c r="C44">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B45" s="2">
-        <v>44782</v>
+        <v>44728</v>
       </c>
       <c r="C45">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B46" s="2">
-        <v>44803</v>
+        <v>44782</v>
       </c>
       <c r="C46">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B47" s="2">
-        <v>44817</v>
+        <v>44803</v>
       </c>
       <c r="C47">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B48" s="2">
-        <v>44863</v>
+        <v>44817</v>
       </c>
       <c r="C48">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B49" s="2">
-        <v>44928</v>
+        <v>44863</v>
       </c>
       <c r="C49">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="2">
+        <v>44928</v>
+      </c>
+      <c r="C50">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B51" s="2">
         <v>44967</v>
       </c>
-      <c r="C50">
+      <c r="C51">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>